--- a/biology/Botanique/Mammillaria_angelensis/Mammillaria_angelensis.xlsx
+++ b/biology/Botanique/Mammillaria_angelensis/Mammillaria_angelensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mammillaria angelensis, aussi appelé Biznaga Llavina en espagnol, est une espèce de cactus du genre Mammillaria endémique du nord-ouest du Mexique, plus particulièrement dans l'État de Baja California Sur[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mammillaria angelensis, aussi appelé Biznaga Llavina en espagnol, est une espèce de cactus du genre Mammillaria endémique du nord-ouest du Mexique, plus particulièrement dans l'État de Baja California Sur.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est constituée d'un tronc central, couvert d'épines à la pointe recourbée, placées en nœuds doublées de poils. Ces poils servent principalement à réguler la consommation et la retenue de l'eau dans la plante, une meilleure régulation de la température et une barrière pour certains insectes[3].
-La floraison (en Europe et plus généralement au niveau du tropique du Cancer) se fait de mars à juillet. Les fleurs d'angelensis se présentent seules ou en couronne, sur la partie supérieure de la plante, exposée à la lumière du soleil et aux insectes et oiseaux pollinisateurs. Elles sont de différentes nuances de roses et blancs[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est constituée d'un tronc central, couvert d'épines à la pointe recourbée, placées en nœuds doublées de poils. Ces poils servent principalement à réguler la consommation et la retenue de l'eau dans la plante, une meilleure régulation de la température et une barrière pour certains insectes.
+La floraison (en Europe et plus généralement au niveau du tropique du Cancer) se fait de mars à juillet. Les fleurs d'angelensis se présentent seules ou en couronne, sur la partie supérieure de la plante, exposée à la lumière du soleil et aux insectes et oiseaux pollinisateurs. Elles sont de différentes nuances de roses et blancs.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve généralement près des côtes, au niveau de la mer et jusqu'à 300 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve généralement près des côtes, au niveau de la mer et jusqu'à 300 m d'altitude.
 </t>
         </is>
       </c>
@@ -574,12 +590,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme est formé de deux mots latins: 
-Mammillaria: en forme de mamelle, proéminence[5].
+Mammillaria: en forme de mamelle, proéminence.
 et 
-angelensis: en référence à la localité d'origine, l'île mexicaine d'Ángel de la Guarda[6],[7].
+angelensis: en référence à la localité d'origine, l'île mexicaine d'Ángel de la Guarda,.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Synonymes et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chilita angelensis (R.T.Craig) Buxb.
 Cochemiea dioica subs. angelensis (R.T.Craig) Doweld.
